--- a/conv_rate(2019).xlsx
+++ b/conv_rate(2019).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Rt</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>VNS-DEEPSO</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>absolute mean</t>
   </si>
 </sst>
 </file>
@@ -6600,10 +6606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7026,6 +7032,56 @@
       </c>
       <c r="F21">
         <v>-2.65172307520199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(B2:B21)</f>
+        <v>-0.296996936453436</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:F22" si="0">AVERAGE(C2:C21)</f>
+        <v>-0.23331718722178488</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.9192187821105535</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-4.5531817516634385</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-2.2691833257749963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <f>ABS(B22)</f>
+        <v>0.296996936453436</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:F23" si="1">ABS(C22)</f>
+        <v>0.23331718722178488</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1.9192187821105535</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>4.5531817516634385</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2.2691833257749963</v>
       </c>
     </row>
   </sheetData>
@@ -7038,7 +7094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
